--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/120.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/120.xlsx
@@ -479,13 +479,13 @@
         <v>0.01123386805992146</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.599148836641647</v>
+        <v>-1.273524531262916</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1227121578326183</v>
+        <v>0.1234334215895272</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0727142710075408</v>
+        <v>0.08399314250981049</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.03057711620391194</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.658120179033449</v>
+        <v>-1.258115183711465</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04007489593527683</v>
+        <v>0.03269581288382427</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1426067731193402</v>
+        <v>0.1124115185512574</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.04357539663838873</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.816979981540725</v>
+        <v>-1.263512981503555</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02125049589919098</v>
+        <v>-0.02501842810170568</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04222408672509444</v>
+        <v>0.08058247016944778</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.03650801973679983</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.938539935469556</v>
+        <v>-1.322307658076357</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.06879505001142121</v>
+        <v>-0.03184561297479476</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09679630421898888</v>
+        <v>0.1026335764864418</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.003579505568783602</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.041184236356619</v>
+        <v>-1.370426463008435</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.11723652557159</v>
+        <v>-0.008823574677346398</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1402298148273408</v>
+        <v>0.1026525571116237</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.05546419452329251</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.844341282764353</v>
+        <v>-1.193235026695756</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01330738236452701</v>
+        <v>0.1425177101857948</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09010052367408158</v>
+        <v>0.03721612177327761</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.131274509457717</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.564601178714565</v>
+        <v>-0.8839968410412932</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1121205170610459</v>
+        <v>0.2404343753544958</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06608127253054258</v>
+        <v>-0.001091159987893929</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.204876399624255</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.194439566370755</v>
+        <v>-0.5041930711051225</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03238336259236981</v>
+        <v>0.3246309686129277</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02851423515146176</v>
+        <v>-0.07684137504041905</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2511040979522156</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7942695856144991</v>
+        <v>-0.08678576258759819</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.006176507488528927</v>
+        <v>0.3346381382280159</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0637349752484523</v>
+        <v>-0.0628365937524228</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2402861261508693</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2065608077252933</v>
+        <v>0.5894924525923111</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2198370250159261</v>
+        <v>0.1846181968871471</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03708763754127764</v>
+        <v>-0.1227350666819522</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1530107785831538</v>
       </c>
       <c r="E12" t="n">
-        <v>0.659809828698565</v>
+        <v>1.374991025260736</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5873822311808274</v>
+        <v>-0.1544867325149437</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1836574852433292</v>
+        <v>-0.01817810279579843</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01746985031973949</v>
       </c>
       <c r="E13" t="n">
-        <v>1.171041287585973</v>
+        <v>2.030175925671288</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9502436030700936</v>
+        <v>-0.6127374263275479</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3467039756512854</v>
+        <v>0.1139124479887116</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2640971898632875</v>
       </c>
       <c r="E14" t="n">
-        <v>1.888381895274599</v>
+        <v>2.737678729323371</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.609906470975462</v>
+        <v>-1.220746712872748</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3575930143132825</v>
+        <v>0.189017321785055</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5658871581060722</v>
       </c>
       <c r="E15" t="n">
-        <v>2.6281941031304</v>
+        <v>3.423345053727823</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.067678269014248</v>
+        <v>-1.801257453673774</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5921935415604922</v>
+        <v>0.3628199864787356</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8959862497679885</v>
       </c>
       <c r="E16" t="n">
-        <v>3.309316757875945</v>
+        <v>4.021856727441662</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.617901772217464</v>
+        <v>-2.469544095628095</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8459265389909696</v>
+        <v>0.5819848853088586</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.22806803029468</v>
       </c>
       <c r="E17" t="n">
-        <v>4.051716170948836</v>
+        <v>4.606138772461505</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.990285577755637</v>
+        <v>-3.085730381506429</v>
       </c>
       <c r="G17" t="n">
-        <v>1.020681155039923</v>
+        <v>0.7786811040679876</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.550285791001952</v>
       </c>
       <c r="E18" t="n">
-        <v>4.58471256672742</v>
+        <v>5.167394399039627</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.532667892686627</v>
+        <v>-3.765042576619247</v>
       </c>
       <c r="G18" t="n">
-        <v>1.247042630910135</v>
+        <v>1.042273806256371</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.851786493406019</v>
       </c>
       <c r="E19" t="n">
-        <v>5.064809960124292</v>
+        <v>5.680334114193399</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.871527534009445</v>
+        <v>-4.376906390124446</v>
       </c>
       <c r="G19" t="n">
-        <v>1.416103059404544</v>
+        <v>1.273818452849309</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.120128579764665</v>
       </c>
       <c r="E20" t="n">
-        <v>5.319420446457404</v>
+        <v>6.032995590119577</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.185490435286089</v>
+        <v>-4.883348891273674</v>
       </c>
       <c r="G20" t="n">
-        <v>1.62510310342576</v>
+        <v>1.48701905522807</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.342681297791943</v>
       </c>
       <c r="E21" t="n">
-        <v>5.732237363777112</v>
+        <v>6.416034826625201</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.50586951789823</v>
+        <v>-5.267137132449935</v>
       </c>
       <c r="G21" t="n">
-        <v>1.829943470435978</v>
+        <v>1.696648379976468</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.509940576885988</v>
       </c>
       <c r="E22" t="n">
-        <v>6.054794108116844</v>
+        <v>6.75569895444611</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.642475267403875</v>
+        <v>-5.45792380656111</v>
       </c>
       <c r="G22" t="n">
-        <v>1.882563603632327</v>
+        <v>1.77003185707363</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.622737787271645</v>
       </c>
       <c r="E23" t="n">
-        <v>6.095195098840378</v>
+        <v>6.889329855966529</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.835435223098369</v>
+        <v>-5.697128595463001</v>
       </c>
       <c r="G23" t="n">
-        <v>1.985202064327027</v>
+        <v>1.913377918590956</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.683418832498619</v>
       </c>
       <c r="E24" t="n">
-        <v>6.307687577895049</v>
+        <v>7.085485856932022</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.862526415425179</v>
+        <v>-5.649160905508332</v>
       </c>
       <c r="G24" t="n">
-        <v>2.085608111490727</v>
+        <v>1.978644988350756</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.696693694736732</v>
       </c>
       <c r="E25" t="n">
-        <v>6.230224726431888</v>
+        <v>7.114222523457286</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.012760983835411</v>
+        <v>-5.606557432239661</v>
       </c>
       <c r="G25" t="n">
-        <v>2.010580620243202</v>
+        <v>1.962955311565851</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.668700080244109</v>
       </c>
       <c r="E26" t="n">
-        <v>6.201781529572895</v>
+        <v>7.098649650519654</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.904437825898759</v>
+        <v>-5.486975843474012</v>
       </c>
       <c r="G26" t="n">
-        <v>1.914773724565864</v>
+        <v>1.894173906051233</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.607334540027656</v>
       </c>
       <c r="E27" t="n">
-        <v>6.019766094367853</v>
+        <v>6.980066004624141</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.821990370253236</v>
+        <v>-5.411968062875713</v>
       </c>
       <c r="G27" t="n">
-        <v>1.946045034576947</v>
+        <v>1.873049930271967</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.524923666595793</v>
       </c>
       <c r="E28" t="n">
-        <v>6.091763985826743</v>
+        <v>6.929100105914791</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.719943229035354</v>
+        <v>-5.228713046841491</v>
       </c>
       <c r="G28" t="n">
-        <v>1.876203634148329</v>
+        <v>1.817147608967254</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.429858592538046</v>
       </c>
       <c r="E29" t="n">
-        <v>5.888366146330343</v>
+        <v>6.750210633672384</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.645120874544602</v>
+        <v>-5.116655815912338</v>
       </c>
       <c r="G29" t="n">
-        <v>1.815699241261073</v>
+        <v>1.777945317726356</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.327468875936266</v>
       </c>
       <c r="E30" t="n">
-        <v>5.856132664627351</v>
+        <v>6.663613721352498</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.701311555347268</v>
+        <v>-5.06287275441158</v>
       </c>
       <c r="G30" t="n">
-        <v>1.838711059221885</v>
+        <v>1.743609366772456</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.222264557104249</v>
       </c>
       <c r="E31" t="n">
-        <v>5.601393694062238</v>
+        <v>6.455359761905736</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.65549743632669</v>
+        <v>-4.889213174430808</v>
       </c>
       <c r="G31" t="n">
-        <v>1.674369506157293</v>
+        <v>1.618607349469308</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.113937072023779</v>
       </c>
       <c r="E32" t="n">
-        <v>5.314019728569133</v>
+        <v>6.194646274552624</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.472543920223239</v>
+        <v>-4.689369091987681</v>
       </c>
       <c r="G32" t="n">
-        <v>1.593396699083587</v>
+        <v>1.499721473618976</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.004756439270436</v>
       </c>
       <c r="E33" t="n">
-        <v>5.053996843963022</v>
+        <v>5.95730669708687</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.402613456861076</v>
+        <v>-4.491370510331461</v>
       </c>
       <c r="G33" t="n">
-        <v>1.61827445850458</v>
+        <v>1.485502065261616</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.892965308628832</v>
       </c>
       <c r="E34" t="n">
-        <v>4.759483243305374</v>
+        <v>5.608655973266418</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.324830854866006</v>
+        <v>-4.354888864913543</v>
       </c>
       <c r="G34" t="n">
-        <v>1.508769391638337</v>
+        <v>1.408490368658546</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.77915402532617</v>
       </c>
       <c r="E35" t="n">
-        <v>4.431949195023734</v>
+        <v>5.327393769081857</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.293388719228287</v>
+        <v>-4.241854131787528</v>
       </c>
       <c r="G35" t="n">
-        <v>1.543112642832691</v>
+        <v>1.375782371326009</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.664127546923324</v>
       </c>
       <c r="E36" t="n">
-        <v>4.180915826513346</v>
+        <v>5.012836628232214</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.143488501830872</v>
+        <v>-4.145209168506009</v>
       </c>
       <c r="G36" t="n">
-        <v>1.436313045078902</v>
+        <v>1.290832393252668</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.546370609245642</v>
       </c>
       <c r="E37" t="n">
-        <v>3.818085115633989</v>
+        <v>4.639763679995133</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.105698807117928</v>
+        <v>-4.086913828380297</v>
       </c>
       <c r="G37" t="n">
-        <v>1.345587116757926</v>
+        <v>1.196795075861512</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.42868115007222</v>
       </c>
       <c r="E38" t="n">
-        <v>3.614482869404863</v>
+        <v>4.337714771140305</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.955562061929787</v>
+        <v>-3.987399870600142</v>
       </c>
       <c r="G38" t="n">
-        <v>1.247579928607589</v>
+        <v>1.164202422328157</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.310401467402019</v>
       </c>
       <c r="E39" t="n">
-        <v>3.19550308909343</v>
+        <v>3.964152706792769</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.830247594335184</v>
+        <v>-3.842368183561863</v>
       </c>
       <c r="G39" t="n">
-        <v>1.176751535669517</v>
+        <v>1.086530783987996</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.194633999609799</v>
       </c>
       <c r="E40" t="n">
-        <v>2.858639333510884</v>
+        <v>3.645510351384763</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.697859923764174</v>
+        <v>-3.744942824575752</v>
       </c>
       <c r="G40" t="n">
-        <v>1.088691655162541</v>
+        <v>1.002218846930382</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.08382829606068</v>
       </c>
       <c r="E41" t="n">
-        <v>2.590584724356683</v>
+        <v>3.423254530746187</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.658480966704276</v>
+        <v>-3.720844000811259</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9604074497510298</v>
+        <v>0.9171900262601322</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9792335295993398</v>
       </c>
       <c r="E42" t="n">
-        <v>2.240803923313868</v>
+        <v>3.100891972802546</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.448001893966969</v>
+        <v>-3.647960590185233</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8911836496648665</v>
+        <v>0.8632762904552376</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8833374885092298</v>
       </c>
       <c r="E43" t="n">
-        <v>2.087719341030182</v>
+        <v>2.942463614506134</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.382488806103849</v>
+        <v>-3.578764531012797</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7946861512405288</v>
+        <v>0.8420793122714251</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7949765915739215</v>
       </c>
       <c r="E44" t="n">
-        <v>1.867117754878604</v>
+        <v>2.70371071048838</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.345116685144905</v>
+        <v>-3.555638829300894</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6806403348115594</v>
+        <v>0.7553334750462666</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7151465053810396</v>
       </c>
       <c r="E45" t="n">
-        <v>1.67754657080311</v>
+        <v>2.50786423971816</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.166988627981907</v>
+        <v>-3.443295428945924</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6316703218424816</v>
+        <v>0.6547274012941118</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6422183645740644</v>
       </c>
       <c r="E46" t="n">
-        <v>1.397610090285094</v>
+        <v>2.294113199209126</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.131359074419462</v>
+        <v>-3.369971813820489</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6534702998878394</v>
+        <v>0.6695833906191078</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5747328656229894</v>
       </c>
       <c r="E47" t="n">
-        <v>1.038740489876372</v>
+        <v>1.99985948711166</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.093645302207245</v>
+        <v>-3.317190345310094</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4898397902435197</v>
+        <v>0.5677377360377716</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5109329603201739</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9264759321183116</v>
+        <v>1.799908821157895</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.012178268854767</v>
+        <v>-3.22194337807562</v>
       </c>
       <c r="G48" t="n">
-        <v>0.446274875306986</v>
+        <v>0.4652511203445263</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4483731752113285</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6898619985537388</v>
+        <v>1.634572975343394</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.976519514330504</v>
+        <v>-3.154940311135729</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3260734961267455</v>
+        <v>0.3886029757160923</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3875939028952695</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6070947923763064</v>
+        <v>1.494323675826886</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.849147108951766</v>
+        <v>-3.098010845999062</v>
       </c>
       <c r="G50" t="n">
-        <v>0.236432383537315</v>
+        <v>0.2933669588422997</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3285416526335085</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5152358667367856</v>
+        <v>1.361376076813013</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.835796429208497</v>
+        <v>-3.007522905516905</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2323135878728616</v>
+        <v>0.2675620688835794</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2715972383382544</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3947556183711816</v>
+        <v>1.199906438343238</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.698029211446533</v>
+        <v>-2.889260470201391</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1676772588883335</v>
+        <v>0.2323369486423161</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2177560863686263</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2110509075249582</v>
+        <v>1.022731062559558</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.631171419291688</v>
+        <v>-2.78306971250151</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1467883508517027</v>
+        <v>0.1467810506112482</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1674970812692428</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3773810460893681</v>
+        <v>0.991649558800294</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.579594490456293</v>
+        <v>-2.726011033108799</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04499963814591187</v>
+        <v>0.1105587175238943</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1227313520805525</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1106244196879852</v>
+        <v>0.8155195774497049</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.621795720475918</v>
+        <v>-2.757999956756563</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01132654902528456</v>
+        <v>0.07810330851108481</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.08463497431304567</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.01542299204825372</v>
+        <v>0.687458759396103</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.491159377589953</v>
+        <v>-2.659244493959635</v>
       </c>
       <c r="G56" t="n">
-        <v>0.02706440739718942</v>
+        <v>0.0655979966124518</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.05402605683455394</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.05280460331978913</v>
+        <v>0.6040286913853982</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.493521735401043</v>
+        <v>-2.645292274402911</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.02410297794870593</v>
+        <v>0.02250905735355428</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.03077879403134824</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.06442512607533146</v>
+        <v>0.5769579397318599</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.517019749376127</v>
+        <v>-2.669142159967905</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08147994782523597</v>
+        <v>-0.02602878138061451</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.01387431755416598</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2241806680863795</v>
+        <v>0.5341566299468714</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.445795683405419</v>
+        <v>-2.638607444218686</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1211202534934072</v>
+        <v>-0.04885079308960838</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.001964164888432344</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.1364857996021303</v>
+        <v>0.510721398039696</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.448492392229328</v>
+        <v>-2.63930534720614</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1198981932413166</v>
+        <v>-0.1054583176222295</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.007445782689453175</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.263623867262278</v>
+        <v>0.3708590112672789</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.539839571012985</v>
+        <v>-2.685848030224082</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2206780127162895</v>
+        <v>-0.1312194061382226</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.01564354387133163</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.339182816014894</v>
+        <v>0.338410902494924</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.424286254930152</v>
+        <v>-2.684813586151673</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2307070830527414</v>
+        <v>-0.171160481713121</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.02343244221672684</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.3886594656715172</v>
+        <v>0.266992650128125</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.609789745024375</v>
+        <v>-2.779615238718421</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3179858378310816</v>
+        <v>-0.2322518139329228</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.03139433514045533</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4416592113715029</v>
+        <v>0.212364950806776</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.610494948252284</v>
+        <v>-2.776146164454421</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3715009805071581</v>
+        <v>-0.2380000232668303</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.03988747138573161</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5108246095340297</v>
+        <v>0.1527789281687011</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.559185208217525</v>
+        <v>-2.75885481491379</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4183188825902364</v>
+        <v>-0.2751202859300931</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.04976357614602715</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.6146252685090928</v>
+        <v>0.1051287986738048</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.720005125286846</v>
+        <v>-2.857056189460218</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4211791168003266</v>
+        <v>-0.2795938732806373</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.06120787480163892</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.6638113685956251</v>
+        <v>0.0710702568571776</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.69280223928108</v>
+        <v>-2.856161910004536</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4418825987294119</v>
+        <v>-0.2870401185442717</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.0741376838275722</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.6157363651062744</v>
+        <v>0.04787155274072929</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.791259122243417</v>
+        <v>-2.951877552676192</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4968271284864881</v>
+        <v>-0.3612718835822518</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.08849664383092565</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.5922091501693716</v>
+        <v>0.003808761405195664</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.848858019429766</v>
+        <v>-2.965476440594916</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4550069710185902</v>
+        <v>-0.3207409485786263</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1032272929328692</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7045043689373414</v>
+        <v>-0.09456343876786882</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.953858837935555</v>
+        <v>-3.078168062419568</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.510469817847939</v>
+        <v>-0.3841303964935183</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1174685045968447</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.755381204713146</v>
+        <v>-0.1320428732614951</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.10069003424588</v>
+        <v>-3.17484952690336</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.64545418394863</v>
+        <v>-0.4538053514397724</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1313406668337661</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.7789653615255941</v>
+        <v>-0.1520732730206716</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.259740373029019</v>
+        <v>-3.296752592133554</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5781985286890117</v>
+        <v>-0.4767368667555844</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1444169874455198</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.7342747495109698</v>
+        <v>-0.1773189645605739</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.245642148663205</v>
+        <v>-3.234033306292389</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6749413151926221</v>
+        <v>-0.5124817641172111</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1565376711123417</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8069457231397684</v>
+        <v>-0.2305493978589232</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.328493307605864</v>
+        <v>-3.303705341142462</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.731424735637516</v>
+        <v>-0.5676014996451964</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1670052471704516</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6442335837446304</v>
+        <v>-0.1866472118133896</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.314224257613414</v>
+        <v>-3.31469220302655</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7691552984027786</v>
+        <v>-0.6045173555757319</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1754857990616541</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.67942074273553</v>
+        <v>-0.2300500614118325</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.203804470618216</v>
+        <v>-3.231933027113617</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7581859570957815</v>
+        <v>-0.6268225102605441</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1811313437072642</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5783109523920117</v>
+        <v>-0.2154276797813818</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.225649710154392</v>
+        <v>-3.235791934217889</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6597903961532625</v>
+        <v>-0.6001868529380967</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1842802351617708</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.3814877094489736</v>
+        <v>-0.1096282149698648</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.170467922582543</v>
+        <v>-3.165714005998544</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7323299654538794</v>
+        <v>-0.6277131395959984</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1853611725772198</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.2634238406738235</v>
+        <v>-0.04303834163970085</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.105399419363106</v>
+        <v>-3.087887602560747</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6532844218601733</v>
+        <v>-0.5881297758033727</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1850328300099501</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.08307140024432647</v>
+        <v>0.0465137080161842</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.054291165964892</v>
+        <v>-3.021899999068083</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6308157417891794</v>
+        <v>-0.6346323074988147</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1837796814714019</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.03999852151442894</v>
+        <v>0.141155485316977</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.955479491316464</v>
+        <v>-2.907200081094386</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6024455473347324</v>
+        <v>-0.5644667763940153</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1811743841031491</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1668610920055155</v>
+        <v>0.2328085441756796</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.840055389489677</v>
+        <v>-2.749871869034474</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5614123557878343</v>
+        <v>-0.5639922607644701</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1776757844143251</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4316860747826262</v>
+        <v>0.5126603419044227</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.759621340161517</v>
+        <v>-2.663193194021497</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.5835642054231012</v>
+        <v>-0.5405219877031128</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1738643395866729</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7133059907494597</v>
+        <v>0.774068812148807</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.644588531223093</v>
+        <v>-2.486633228508135</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5451065387085661</v>
+        <v>-0.532474202626024</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1707177656674647</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8295550197476103</v>
+        <v>0.9826498223679329</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.39638108579266</v>
+        <v>-2.261052148342515</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.54022851803684</v>
+        <v>-0.5280998985456615</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.169621553471362</v>
       </c>
       <c r="E86" t="n">
-        <v>1.164027216557248</v>
+        <v>1.307730989856845</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.392169577074434</v>
+        <v>-2.151412757051907</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.4500836888560461</v>
+        <v>-0.4670494476724052</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1710643519477337</v>
       </c>
       <c r="E87" t="n">
-        <v>1.388134378175097</v>
+        <v>1.607655528739401</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.24223066840261</v>
+        <v>-1.987730415700361</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.4483944132148647</v>
+        <v>-0.4415073663700484</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.175302646705705</v>
       </c>
       <c r="E88" t="n">
-        <v>1.501793281859975</v>
+        <v>1.809743705098256</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.959341240620732</v>
+        <v>-1.735172756983065</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4575459946486805</v>
+        <v>-0.4414913058410484</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1822688834639108</v>
       </c>
       <c r="E89" t="n">
-        <v>1.719388628992371</v>
+        <v>2.021443378039563</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.811226662038499</v>
+        <v>-1.592034022294649</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.328309837881897</v>
+        <v>-0.3486147266821643</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1917375871533549</v>
       </c>
       <c r="E90" t="n">
-        <v>1.893017547963234</v>
+        <v>2.149901329173892</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.576551672338653</v>
+        <v>-1.406112958446426</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.2942688166423607</v>
+        <v>-0.3115747666639015</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2040709187507212</v>
       </c>
       <c r="E91" t="n">
-        <v>1.940228202982767</v>
+        <v>2.209820242776694</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.346185284555078</v>
+        <v>-1.212130969088296</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2509783907469177</v>
+        <v>-0.2963508452199964</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2182312077810327</v>
       </c>
       <c r="E92" t="n">
-        <v>1.915747576642501</v>
+        <v>2.128073610214807</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.157974865300311</v>
+        <v>-1.060764863407609</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.284956629918545</v>
+        <v>-0.2745304265013659</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2354628645022327</v>
       </c>
       <c r="E93" t="n">
-        <v>1.939147767395494</v>
+        <v>2.055681505771372</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.8797189001349307</v>
+        <v>-0.8578327792522094</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2870211379190899</v>
+        <v>-0.2554183969913711</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2566861384507608</v>
       </c>
       <c r="E94" t="n">
-        <v>1.887348181226235</v>
+        <v>1.92302591637568</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7997476860515885</v>
+        <v>-0.8073151153067684</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.2885454281259985</v>
+        <v>-0.2099758602099288</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2836320941963886</v>
       </c>
       <c r="E95" t="n">
-        <v>1.844689956154156</v>
+        <v>1.833103014504704</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5696105258182868</v>
+        <v>-0.6042457866308228</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.2593181854421882</v>
+        <v>-0.1794389543885733</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.315753275079423</v>
       </c>
       <c r="E96" t="n">
-        <v>1.67399573384602</v>
+        <v>1.681380657089836</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3552754660728897</v>
+        <v>-0.4515919185339548</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1908769711327521</v>
+        <v>-0.1499620434812176</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3495293544076991</v>
       </c>
       <c r="E97" t="n">
-        <v>1.543054240909055</v>
+        <v>1.537403854797238</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1743214858299383</v>
+        <v>-0.2938716835616335</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2789543722168193</v>
+        <v>-0.1454796958421279</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3808516265281544</v>
       </c>
       <c r="E98" t="n">
-        <v>1.455680583004806</v>
+        <v>1.384768967325552</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.003030103852620681</v>
+        <v>-0.1567848482100339</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2252698639621974</v>
+        <v>-0.1463119232539458</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4056849324402848</v>
       </c>
       <c r="E99" t="n">
-        <v>1.292577150721304</v>
+        <v>1.254134084487678</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08360622976571969</v>
+        <v>-0.003872551601075</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3150175600622642</v>
+        <v>-0.2024580725898399</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4237426276220957</v>
       </c>
       <c r="E100" t="n">
-        <v>1.239464981318319</v>
+        <v>1.217232829038052</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2046485966463236</v>
+        <v>0.08482682996971937</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3434928779792565</v>
+        <v>-0.2159270162284726</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4361703526306855</v>
       </c>
       <c r="E101" t="n">
-        <v>1.115438276139897</v>
+        <v>1.116453009563079</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2141812506318664</v>
+        <v>0.1281274762017987</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.208565453754111</v>
+        <v>-0.1711823824344846</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4425697083615979</v>
       </c>
       <c r="E102" t="n">
-        <v>1.06029955998673</v>
+        <v>1.089269834206541</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1904072875676001</v>
+        <v>0.1386193817830686</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3171623707078091</v>
+        <v>-0.252542102252281</v>
       </c>
     </row>
   </sheetData>
